--- a/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOInterop\git\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Exames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Exames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD062AF-8BB6-4F2A-9B75-DBD1692E0638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7288C6A3-10E9-5348-B33A-693658F9FCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa semântico" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="174">
   <si>
     <t>Mapeamento semântico</t>
   </si>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-microorganism-snomed-ct-ips-free-set</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/CodeSystem/BRTipoResultadoDTNT </t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/CodeSystem/BRTipoResultadoRGNR </t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/CodeSystem/BRTipoResultadoRSCUL </t>
   </si>
 </sst>
 </file>
@@ -554,24 +563,28 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,12 +592,14 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -927,6 +942,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1334,24 +1353,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1364,7 +1383,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1402,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1410,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="40" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>169</v>
       </c>
@@ -1437,8 +1456,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="31" t="b">
@@ -1464,8 +1483,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="31" t="b">
@@ -1491,8 +1510,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="31" t="b">
@@ -1518,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="31" t="b">
         <v>1</v>
@@ -1541,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="31" t="b">
         <v>0</v>
@@ -1564,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="31" t="b">
         <v>0</v>
@@ -1587,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="31" t="b">
         <v>1</v>
@@ -1610,8 +1629,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="31" t="b">
@@ -1637,45 +1656,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26" t="s">
+    <row r="13" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="I13" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>27</v>
@@ -1683,47 +1688,41 @@
       <c r="F14" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="I14" s="29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="26" t="b">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="41" t="s">
+        <v>160</v>
+      </c>
       <c r="B16" s="31" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>27</v>
@@ -1737,8 +1736,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="42" t="s">
+        <v>161</v>
+      </c>
       <c r="B17" s="31" t="b">
         <v>1</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>27</v>
@@ -1755,33 +1756,99 @@
         <v>0</v>
       </c>
       <c r="G17" s="27"/>
-      <c r="H17" s="29"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="34" t="s">
+    <row r="18" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29" t="b">
-        <v>1</v>
-      </c>
+      <c r="F20" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1789,10 +1856,22 @@
     <hyperlink ref="G12" r:id="rId2" display="http://hl7.org/fhir/uv/ips/ValueSet/results-blood-group-snomed-ct-ips-free-set_x000a_" xr:uid="{08FA11BA-80B0-4601-AFFA-C94E4C1162BE}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{9E7BC733-FCE4-455A-A91B-4230A9C73853}"/>
     <hyperlink ref="G4" r:id="rId4" xr:uid="{7B446009-9822-4906-AC34-7FBDB4FEEED4}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{9DB27242-5B44-2A4A-A6E2-14B02609EE3D}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{187C0A50-DA9B-764B-A423-E81E941C10E7}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{847317AE-3A9C-DC4C-B360-D33069BDCE71}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{F3ACC952-0F05-7B47-A775-6E82A8C39115}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{884DC7ED-2A53-E44D-8009-F60FC9878D25}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{D67A2589-1895-464B-B31A-8DC9D47BF4B0}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{3F32C849-0EEA-4847-BF5F-1FA76854E8A9}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{750DE95C-F128-0E47-8DA9-5241EA951749}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{6C6E07CF-8409-824D-8010-DE9E38BC9E5C}"/>
+    <hyperlink ref="A18" r:id="rId14" xr:uid="{F8BDB9CC-43FE-6E42-873F-ADFA42756CBC}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{1360A535-F681-7142-961E-07F90A218E49}"/>
+    <hyperlink ref="A19" r:id="rId16" xr:uid="{640F670E-0425-024E-B908-65D8118A0C41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -1804,18 +1883,18 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -1829,7 +1908,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -1847,7 +1926,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1897,7 +1976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
@@ -1921,7 +2000,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
@@ -1945,7 +2024,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
         <v>157</v>
       </c>
@@ -1969,7 +2048,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
         <v>157</v>
       </c>
@@ -1993,7 +2072,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>157</v>
       </c>
@@ -2017,7 +2096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
         <v>158</v>
       </c>
@@ -2041,7 +2120,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
         <v>158</v>
       </c>
@@ -2065,7 +2144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
         <v>158</v>
       </c>
@@ -2089,7 +2168,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
         <v>159</v>
       </c>
@@ -2113,7 +2192,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
         <v>159</v>
       </c>
@@ -2137,7 +2216,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
         <v>159</v>
       </c>
@@ -2161,7 +2240,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
         <v>160</v>
       </c>
@@ -2185,7 +2264,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
         <v>160</v>
       </c>
@@ -2209,7 +2288,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
         <v>160</v>
       </c>
@@ -2233,7 +2312,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
         <v>161</v>
       </c>
@@ -2257,7 +2336,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
         <v>161</v>
       </c>
@@ -2281,7 +2360,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>161</v>
       </c>
@@ -2305,7 +2384,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
         <v>162</v>
       </c>
@@ -2329,7 +2408,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
         <v>162</v>
       </c>
@@ -2353,7 +2432,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>162</v>
       </c>
@@ -2377,7 +2456,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>163</v>
       </c>
@@ -2401,7 +2480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>163</v>
       </c>
@@ -2425,7 +2504,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>163</v>
       </c>
@@ -2449,7 +2528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>164</v>
       </c>
@@ -2473,7 +2552,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>164</v>
       </c>
@@ -2497,7 +2576,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>164</v>
       </c>
@@ -2521,7 +2600,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="24"/>
       <c r="C31" s="22"/>
@@ -2537,7 +2616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="24"/>
       <c r="C32" s="22"/>
@@ -2553,7 +2632,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
       <c r="B33" s="24"/>
       <c r="C33" s="22"/>
@@ -2569,7 +2648,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="22"/>
       <c r="B34" s="24"/>
       <c r="C34" s="22"/>
@@ -2585,7 +2664,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="22"/>
       <c r="B35" s="24"/>
       <c r="C35" s="22"/>
@@ -2601,7 +2680,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="22"/>
       <c r="B36" s="24"/>
       <c r="C36" s="22"/>
@@ -2617,7 +2696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="22"/>
       <c r="B37" s="24"/>
       <c r="C37" s="22"/>
@@ -2633,7 +2712,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="22"/>
       <c r="B38" s="24"/>
       <c r="C38" s="22"/>
@@ -2649,7 +2728,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
       <c r="B39" s="24"/>
       <c r="C39" s="22"/>
@@ -2665,7 +2744,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
       <c r="B40" s="24"/>
       <c r="C40" s="22"/>
@@ -2681,7 +2760,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
       <c r="B41" s="24"/>
       <c r="C41" s="22"/>
@@ -2697,7 +2776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="22"/>
       <c r="B42" s="24"/>
       <c r="C42" s="22"/>
@@ -2713,7 +2792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="22"/>
       <c r="B43" s="24"/>
       <c r="C43" s="22"/>
@@ -2729,7 +2808,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="22"/>
       <c r="B44" s="24"/>
       <c r="C44" s="22"/>
@@ -2745,7 +2824,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="22"/>
       <c r="B45" s="24"/>
       <c r="C45" s="22"/>
@@ -2761,7 +2840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="22"/>
       <c r="B46" s="24"/>
       <c r="C46" s="22"/>
@@ -2777,7 +2856,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="24"/>
       <c r="C47" s="22"/>
@@ -2793,7 +2872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
       <c r="B48" s="24"/>
       <c r="C48" s="22"/>
@@ -2809,7 +2888,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
       <c r="B49" s="24"/>
       <c r="C49" s="22"/>
@@ -2825,7 +2904,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="B50" s="24"/>
       <c r="C50" s="22"/>

--- a/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Exames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7288C6A3-10E9-5348-B33A-693658F9FCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B45C7B-EAB2-7E43-A44D-9E4E7D691566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Exames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B45C7B-EAB2-7E43-A44D-9E4E7D691566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE19A8-D67E-0C4C-9642-0D77C08D5746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="Mapa semântico" sheetId="1" r:id="rId1"/>
     <sheet name="ConceptMap-observation-interpre" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -856,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -946,6 +959,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1356,7 +1372,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1669,7 +1685,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
         <v>171</v>
       </c>
@@ -1688,7 +1704,7 @@
       <c r="F14" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="43" t="s">
         <v>168</v>
       </c>
       <c r="H14" s="29" t="s">

--- a/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Exames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE19A8-D67E-0C4C-9642-0D77C08D5746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92AB84-ADEF-9945-A8E2-11A02BDB79DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -961,6 +961,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1372,7 +1375,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1446,7 +1449,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="40" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="36" t="b">
@@ -1464,7 +1467,7 @@
       <c r="F4" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="44" t="s">
         <v>170</v>
       </c>
       <c r="H4" s="38"/>
@@ -1491,7 +1494,7 @@
       <c r="F5" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="44" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="28"/>
@@ -1518,7 +1521,7 @@
       <c r="F6" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="29"/>
@@ -1545,7 +1548,7 @@
       <c r="F7" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="44" t="s">
         <v>166</v>
       </c>
       <c r="H7" s="29"/>
@@ -1884,10 +1887,12 @@
     <hyperlink ref="A18" r:id="rId14" xr:uid="{F8BDB9CC-43FE-6E42-873F-ADFA42756CBC}"/>
     <hyperlink ref="A20" r:id="rId15" xr:uid="{1360A535-F681-7142-961E-07F90A218E49}"/>
     <hyperlink ref="A19" r:id="rId16" xr:uid="{640F670E-0425-024E-B908-65D8118A0C41}"/>
+    <hyperlink ref="G5" r:id="rId17" xr:uid="{DE22403D-6802-5B40-8864-2A86B644183B}"/>
+    <hyperlink ref="G7" r:id="rId18" xr:uid="{6BFC6E05-E57F-3F47-BE22-B29D30B576E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Exames/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92AB84-ADEF-9945-A8E2-11A02BDB79DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED41C8-7693-3A4C-98AC-58D4DC2A60FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa semântico" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,6 @@
     <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/R4/valueset-observation-status.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/R4/valueset-observation-category.html</t>
-  </si>
-  <si>
     <t>component</t>
   </si>
   <si>
@@ -558,6 +552,12 @@
   </si>
   <si>
     <t>http://www.saude.gov.br/fhir/r4/CodeSystem/BRTipoResultadoRSCUL </t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="4" spans="1:9" s="40" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="36" t="b">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="39" t="b">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="b">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29" t="b">
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29" t="b">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="b">
@@ -1677,7 +1677,7 @@
     </row>
     <row r="13" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="26"/>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="14" spans="1:9" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" s="31" t="b">
         <v>1</v>
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I14" s="29" t="b">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="15" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="26"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="16" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="31" t="b">
         <v>1</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="17" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="31" t="b">
         <v>1</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="18" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18" s="31" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="19" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" s="31" t="b">
         <v>1</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="20" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="33" t="b">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>27</v>
@@ -1942,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1975,650 +1975,650 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2627,14 +2627,14 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2643,14 +2643,14 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2659,14 +2659,14 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2675,14 +2675,14 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -2691,14 +2691,14 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -2707,14 +2707,14 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -2723,14 +2723,14 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -2739,14 +2739,14 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -2755,14 +2755,14 @@
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -2771,14 +2771,14 @@
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -2787,14 +2787,14 @@
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2803,14 +2803,14 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2819,14 +2819,14 @@
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2835,14 +2835,14 @@
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2851,14 +2851,14 @@
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2867,14 +2867,14 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2883,14 +2883,14 @@
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2899,14 +2899,14 @@
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2915,14 +2915,14 @@
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2931,14 +2931,14 @@
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED41C8-7693-3A4C-98AC-58D4DC2A60FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E6B07-9034-FE4C-8778-ABDE145486E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2920" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa semântico" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="178">
   <si>
     <t>Mapeamento semântico</t>
   </si>
@@ -558,6 +558,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>Carga OCL-Source</t>
+  </si>
+  <si>
+    <t>Carga OCL-Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -869,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -963,6 +975,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,10 +1392,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1384,12 +1404,12 @@
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1402,7 +1422,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1420,8 +1440,17 @@
         <v>4</v>
       </c>
       <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="J2" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1447,8 +1476,17 @@
       <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="40" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="40" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
         <v>167</v>
       </c>
@@ -1474,8 +1512,17 @@
       <c r="I4" s="39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J4" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="41" t="s">
         <v>32</v>
       </c>
@@ -1501,8 +1548,17 @@
       <c r="I5" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J5" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
         <v>33</v>
       </c>
@@ -1528,8 +1584,17 @@
       <c r="I6" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
         <v>34</v>
       </c>
@@ -1555,8 +1620,17 @@
       <c r="I7" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J7" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="31" t="b">
         <v>1</v>
@@ -1578,8 +1652,14 @@
       <c r="I8" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J8" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="31" t="b">
         <v>0</v>
@@ -1601,8 +1681,10 @@
       <c r="I9" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="31" t="b">
         <v>0</v>
@@ -1624,8 +1706,10 @@
       <c r="I10" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="31" t="b">
         <v>1</v>
@@ -1647,8 +1731,10 @@
       <c r="I11" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
         <v>35</v>
       </c>
@@ -1667,15 +1753,24 @@
       <c r="F12" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="43" t="s">
         <v>165</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J12" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="41" t="s">
         <v>155</v>
       </c>
@@ -1687,8 +1782,17 @@
       <c r="G13" s="27"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="J13" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
         <v>169</v>
       </c>
@@ -1716,8 +1820,17 @@
       <c r="I14" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J14" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
         <v>157</v>
       </c>
@@ -1729,8 +1842,17 @@
       <c r="G15" s="27"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J15" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="41" t="s">
         <v>158</v>
       </c>
@@ -1754,8 +1876,17 @@
       <c r="I16" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J16" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
         <v>159</v>
       </c>
@@ -1779,8 +1910,17 @@
       <c r="I17" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J17" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
         <v>170</v>
       </c>
@@ -1804,8 +1944,17 @@
       <c r="I18" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J18" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
         <v>171</v>
       </c>
@@ -1829,8 +1978,17 @@
       <c r="I19" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J19" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="42" t="s">
         <v>161</v>
       </c>
@@ -1854,19 +2012,28 @@
       <c r="I20" s="29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25"/>
     </row>
   </sheetData>

--- a/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E6B07-9034-FE4C-8778-ABDE145486E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D82770B-7C1C-1D4C-A350-EC0AB746D3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2920" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa semântico" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="182">
   <si>
     <t>Mapeamento semântico</t>
   </si>
@@ -570,6 +570,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>HL7</t>
+  </si>
+  <si>
+    <t>não existe codeSystem BR apenas o ValueSet que herda do CodeSystem Hl7 observation status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carregar mapeamento LOINC - RNDS e popular o ValueSet </t>
   </si>
 </sst>
 </file>
@@ -881,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -979,12 +991,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1392,10 +1413,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1409,7 +1430,7 @@
     <col min="9" max="9" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1421,8 +1442,15 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="47"/>
+      <c r="M1" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1440,17 +1468,20 @@
         <v>4</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="M2" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1476,17 +1507,12 @@
       <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="40" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+    </row>
+    <row r="4" spans="1:14" s="40" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
         <v>167</v>
       </c>
@@ -1518,11 +1544,14 @@
       <c r="K4" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="41" t="s">
         <v>32</v>
       </c>
@@ -1554,11 +1583,17 @@
       <c r="K5" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="L5" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
         <v>33</v>
       </c>
@@ -1585,16 +1620,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="M6" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
         <v>34</v>
       </c>
@@ -1621,16 +1659,19 @@
         <v>1</v>
       </c>
       <c r="J7" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="31" t="b">
         <v>1</v>
@@ -1652,14 +1693,17 @@
       <c r="I8" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J8" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="31" t="b">
         <v>0</v>
@@ -1681,10 +1725,14 @@
       <c r="I9" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-    </row>
-    <row r="10" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J9" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="31" t="b">
         <v>0</v>
@@ -1709,7 +1757,7 @@
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
     </row>
-    <row r="11" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="31" t="b">
         <v>1</v>
@@ -1734,7 +1782,7 @@
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" s="30" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
         <v>35</v>
       </c>
@@ -1760,17 +1808,10 @@
       <c r="I12" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="41" t="s">
         <v>155</v>
       </c>
@@ -1792,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="30" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" s="30" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
         <v>169</v>
       </c>
@@ -1820,17 +1861,17 @@
       <c r="I14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="30" t="b">
+      <c r="J14" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="45" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
         <v>157</v>
       </c>
@@ -1852,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="41" t="s">
         <v>158</v>
       </c>
@@ -1886,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
         <v>159</v>
       </c>
@@ -1920,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
         <v>170</v>
       </c>
@@ -1954,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
         <v>171</v>
       </c>
@@ -1988,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="42" t="s">
         <v>161</v>
       </c>
@@ -2022,21 +2063,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{C4B8174E-8684-47FF-8395-5D6FDBC72B11}"/>
     <hyperlink ref="G12" r:id="rId2" display="http://hl7.org/fhir/uv/ips/ValueSet/results-blood-group-snomed-ct-ips-free-set_x000a_" xr:uid="{08FA11BA-80B0-4601-AFFA-C94E4C1162BE}"/>
